--- a/src/Storm.Web/obj/Release/Package/PackageTmp/Resource/模板.xlsx
+++ b/src/Storm.Web/obj/Release/Package/PackageTmp/Resource/模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>序号</t>
   </si>
@@ -37,13 +37,17 @@
   </si>
   <si>
     <t>发证时间</t>
+  </si>
+  <si>
+    <t>证件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,7 +236,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,19 +445,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,128 +474,144 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -606,7 +626,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -620,7 +640,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
